--- a/Corte de Apelaciones de Arica/1-2013301#2#1-C-ingresos-2021-1.xlsx
+++ b/Corte de Apelaciones de Arica/1-2013301#2#1-C-ingresos-2021-1.xlsx
@@ -82,10 +82,10 @@
     <t>Reconocimiento Firma,Citación Y Confesión De Deuda</t>
   </si>
   <si>
+    <t>Arbitro Y Derivados, Designacion De</t>
+  </si>
+  <si>
     <t>Perjuicios, Indemnización De</t>
-  </si>
-  <si>
-    <t>Arbitro Y Derivados, Designacion De</t>
   </si>
   <si>
     <t>Otros Ejecutivos</t>
